--- a/biology/Botanique/Cotonéaster/Cotonéaster.xlsx
+++ b/biology/Botanique/Cotonéaster/Cotonéaster.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster</t>
+          <t>Cotonéaster</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cotoneaster
 Cotoneaster (Les Cotonéasters) est un genre de plantes à fleurs , de la famille des Rosaceae. Ce genre regroupe plus de 300 espèces d'arbustes de la région paléarctique (Europe, Asie tempérée et Afrique du Nord) particulièrement bien représentés dans l'Himalaya. La principale espèce sauvage européenne est Cotoneaster integerrimus.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster</t>
+          <t>Cotonéaster</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme Cotoneaster provient du grec kydonion ou du latin cotoneus qui signifie « coing » et du suffixe latin -aster, « qui ressemble à ».
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster</t>
+          <t>Cotonéaster</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les cotonéasters sont des arbrisseaux de cinquante centimètres à quinze mètres de haut. Certains comme Cotoneaster frigidus peuvent s'élever jusqu'à 15 m avec un tronc de 15 cm de diamètre. Les plus petits représentants se trouvent en altitude, comme Cotoneaster integrifolius présent dans l'Himalaya, à une altitude de 3 000 à 4 000 m ; les plus grands sont davantage répandus en plaine. 
 Les pousses conduisent à la formation soit pour les plus grandes (10–40 cm) de branches, soit pour les plus petites (0,5–5 cm) de fleurs.
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Coton%C3%A9aster</t>
+          <t>Cotonéaster</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,8 +596,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Espèces ornementales
-Les espèces ornementales sont quasiment toutes originaires d'Asie. Elles ont été introduites dans les jardins et les parcs des zones tempérées (notamment Europe et Amérique du Nord) pour le feuillage persistant, leurs nombreuses fleurs blanches ou roses, leurs nombreuses baies rouges à l'automne, leur résistance à la taille (certaines espèces servent à la confection de haies) et parfois pour leur forme particulière (pleureuse, rampante, etc.).
+          <t>Espèces ornementales</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces ornementales sont quasiment toutes originaires d'Asie. Elles ont été introduites dans les jardins et les parcs des zones tempérées (notamment Europe et Amérique du Nord) pour le feuillage persistant, leurs nombreuses fleurs blanches ou roses, leurs nombreuses baies rouges à l'automne, leur résistance à la taille (certaines espèces servent à la confection de haies) et parfois pour leur forme particulière (pleureuse, rampante, etc.).
 En voici une sélection :
 Cotoneaster acutifolius Turcz.
 Cotoneaster adpressus Boiss.
@@ -602,8 +623,43 @@
 Cotoneaster pannosus Franch.
 Cotoneaster salicifolius Franch.
 Cotoneaster simonsii Baker
-Espèces européennes
-Toutes les espèces indigènes en Europe sont à feuilles caduques. Elles sont souvent très proches les unes des autres et sont donc assez difficiles à distinguer. Certaines sont très rares, comme par exemple Cotoneaster cambricus, endémique du pays de Galles, le Cotonéaster du Dauphiné et le Cotonéaster intermédiaire, endémiques des Alpes du sud-ouest (France, Italie).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cotonéaster</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coton%C3%A9aster</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces européennes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Toutes les espèces indigènes en Europe sont à feuilles caduques. Elles sont souvent très proches les unes des autres et sont donc assez difficiles à distinguer. Certaines sont très rares, comme par exemple Cotoneaster cambricus, endémique du pays de Galles, le Cotonéaster du Dauphiné et le Cotonéaster intermédiaire, endémiques des Alpes du sud-ouest (France, Italie).
 Les espèces européennes sont fortement menacées par l'introduction d'espèces asiatiques, par des collectionneurs peu scrupuleux qui prélèvent des spécimens dans la nature et par la destruction de leur habitat.
 Voici la liste des espèces indigènes en Europe :
 Cotoneaster cambricus J. Fryer &amp; B. Hylmö - endémique du Pays de Galles
@@ -614,9 +670,43 @@
 Cotoneaster melanocarpus Fries
 Cotoneaster nebrodensis Koch - Cotonéaster de l'Atlantique
 Cotoneaster scandinavicus - Cotonéaster de Scandinavie
-Cotoneaster tomentosus  Lindl. - Cotonéaster laineux
-Liste des espèces
-Voici la liste de toutes les espèces classées dans le genre Cotoneaster selon Catalogue of Life                                   (7 novembre 2020)[1] :
+Cotoneaster tomentosus  Lindl. - Cotonéaster laineux</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cotonéaster</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Coton%C3%A9aster</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Voici la liste de toutes les espèces classées dans le genre Cotoneaster selon Catalogue of Life                                   (7 novembre 2020) :
 Cotoneaster acuminatus
 Cotoneaster acutifolius
 Cotoneaster acutifolius var. glabricalyx
@@ -995,33 +1085,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Coton%C3%A9aster</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cotonéaster</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Coton%C3%A9aster</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Certaines espèces de cotonéasters sont aujourd'hui cultivées dans les jardins comme plantes ornementales grâce à leurs fruits décoratifs, mais aussi comme haies et plantes tapissantes. L'avantage est que ces espèces n'exigent que très peu de soins[2].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Certaines espèces de cotonéasters sont aujourd'hui cultivées dans les jardins comme plantes ornementales grâce à leurs fruits décoratifs, mais aussi comme haies et plantes tapissantes. L'avantage est que ces espèces n'exigent que très peu de soins.
 </t>
         </is>
       </c>
